--- a/resources/UebungEntwurfVorgabe.xlsx
+++ b/resources/UebungEntwurfVorgabe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\sammlung\coding\java\bwi351\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5352395C-9158-4014-9B6B-B9E7FCAFE9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A5EB2F-5BB2-47CA-A6B1-C596AB75A07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="2895" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="2910" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuickSortÜb1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
   <si>
     <t>Quicksort Übung 1</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">L2 </t>
-  </si>
-  <si>
-    <t>L0</t>
   </si>
 </sst>
 </file>
@@ -471,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -641,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -677,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>29</v>
@@ -686,7 +683,7 @@
         <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>30</v>
@@ -952,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
